--- a/ThanhNgu4Chu.xlsx
+++ b/ThanhNgu4Chu.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t>番号</t>
   </si>
@@ -4719,6 +4719,216 @@
   </si>
   <si>
     <t>山や川の景色が美しいよ様子。山が日の光で紫に見えて、川の流れが清らかである様子。</t>
+  </si>
+  <si>
+    <t>三拝九拝</t>
+  </si>
+  <si>
+    <t>さんぱいきゅうはい</t>
+  </si>
+  <si>
+    <t>何度も人に頭を下げること。そのようにして人に何かを頼むこと。</t>
+  </si>
+  <si>
+    <t>自画自賛</t>
+  </si>
+  <si>
+    <t>じがじさん</t>
+  </si>
+  <si>
+    <t>自分自身や、自分がしたこと、自分が作った物などを自分でほめること。</t>
+  </si>
+  <si>
+    <t>自給自足</t>
+  </si>
+  <si>
+    <t>じきゅうじそく</t>
+  </si>
+  <si>
+    <t>自分に必要なものを、他から手に入れずに、自分自身で作ってまかなうこと。</t>
+  </si>
+  <si>
+    <t>四苦八苦</t>
+  </si>
+  <si>
+    <t>しくはっく</t>
+  </si>
+  <si>
+    <t>思うようにならなくて、非常に苦しむこと。</t>
+  </si>
+  <si>
+    <t>試行錯誤</t>
+  </si>
+  <si>
+    <t>しこうさくご</t>
+  </si>
+  <si>
+    <t>失敗を繰り返しながらいろいろ試してみて、物事を解決しようとすること。</t>
+  </si>
+  <si>
+    <t>自業自得</t>
+  </si>
+  <si>
+    <t>じごうじとく</t>
+  </si>
+  <si>
+    <t>自分が過去にした悪い行いがもたらした結果を、自分で受けること。</t>
+  </si>
+  <si>
+    <t>七転八起</t>
+  </si>
+  <si>
+    <t>しちてんはっき</t>
+  </si>
+  <si>
+    <t>何度失敗しても、くじけずに立ち上がり行動し続けること。</t>
+  </si>
+  <si>
+    <t>弱肉強食</t>
+  </si>
+  <si>
+    <t>じゃくにくきょうしょく</t>
+  </si>
+  <si>
+    <t>弱いものは強いもののえじきとなって、滅び、強いものが繁栄すること。</t>
+  </si>
+  <si>
+    <t>終始一貫</t>
+  </si>
+  <si>
+    <t>しゅうしいっかん</t>
+  </si>
+  <si>
+    <t>態度や考えが、始めから終わりまで変わらないこと。</t>
+  </si>
+  <si>
+    <t>十人十色</t>
+  </si>
+  <si>
+    <t>じゅうにんといろ</t>
+  </si>
+  <si>
+    <t>好みや考えかた、性格などは、人それぞれで違っていること。</t>
+  </si>
+  <si>
+    <t>主客転倒</t>
+  </si>
+  <si>
+    <t>しゅかくてんとう</t>
+  </si>
+  <si>
+    <t>物事の立場や段取りなどを取り違えること。客と主人の力関係が入れ替わること。</t>
+  </si>
+  <si>
+    <t>取捨選択</t>
+  </si>
+  <si>
+    <t>しゅしゃせんたく</t>
+  </si>
+  <si>
+    <t>良いものや必要なものを選んで残し、悪いものやいらないものは捨ててしまうこと。</t>
+  </si>
+  <si>
+    <t>順風満帆</t>
+  </si>
+  <si>
+    <t>じゅんふうまんぱん</t>
+  </si>
+  <si>
+    <t>物事が自分の思い通りに、順調に運んでいく様子のたとえ。</t>
+  </si>
+  <si>
+    <t>枝葉末節</t>
+  </si>
+  <si>
+    <t>しようまっせつ</t>
+  </si>
+  <si>
+    <t>物事の中心から外れている、細かくてどうでもいい部分のこと。</t>
+  </si>
+  <si>
+    <t>心機一転</t>
+  </si>
+  <si>
+    <t>しんきいってん</t>
+  </si>
+  <si>
+    <t>何かをきっかけにして、気持ちがすっかり変わること。</t>
+  </si>
+  <si>
+    <t>針小棒大</t>
+  </si>
+  <si>
+    <t>しんしょうぼうだい</t>
+  </si>
+  <si>
+    <t>小さなことを大げさに、誇張して言うこと。</t>
+  </si>
+  <si>
+    <t>森羅万象</t>
+  </si>
+  <si>
+    <t>しんらばんしょう</t>
+  </si>
+  <si>
+    <t>この世界に存在する、ありとあらゆるもののこと。</t>
+  </si>
+  <si>
+    <t>晴耕雨読</t>
+  </si>
+  <si>
+    <t>せいこううどく</t>
+  </si>
+  <si>
+    <t>何かにわずらわされたりせず、思いのままにのんびりとした生活を送ること。悠々自適。</t>
+  </si>
+  <si>
+    <t>正々堂々</t>
+  </si>
+  <si>
+    <t>せいせいどうどう</t>
+  </si>
+  <si>
+    <t>卑怯なことをせず、正しくて堂々とした態度をとること。</t>
+  </si>
+  <si>
+    <t>青天白日</t>
+  </si>
+  <si>
+    <t>せいてんはくじつ</t>
+  </si>
+  <si>
+    <t>①よく晴れた日のこと。
+②心中に後ろめたいことがないこと。
+③無罪であることが明らかになること。</t>
+  </si>
+  <si>
+    <t>絶体絶命</t>
+  </si>
+  <si>
+    <t>ぜったいぜつめい</t>
+  </si>
+  <si>
+    <t>逃げることのできない、差し迫った立場、場面にあること。</t>
+  </si>
+  <si>
+    <t>千差万別</t>
+  </si>
+  <si>
+    <t>せんさばんべつ</t>
+  </si>
+  <si>
+    <t>物事は種々様々あって違いもいろいろであるということ。</t>
+  </si>
+  <si>
+    <t>前人未到</t>
+  </si>
+  <si>
+    <t>ぜんじんみとう</t>
+  </si>
+  <si>
+    <t>①いまだかつて、誰も成功していないこと。
+②それまで、誰も行ったことがないところ。</t>
   </si>
 </sst>
 </file>
@@ -5165,10 +5375,10 @@
   <dimension ref="A2:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -6033,189 +6243,327 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" ht="30">
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30">
       <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30">
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="B65" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30">
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30">
       <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30">
       <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30">
       <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30">
       <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="B71" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30">
       <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B72" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30">
       <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30">
       <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="B74" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30">
       <c r="A75" s="2">
         <v>73</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30">
       <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30">
       <c r="A77" s="2">
         <v>75</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="B77" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
         <v>76</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30">
       <c r="A79" s="2">
         <v>77</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="B79" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30">
       <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="B80" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="30">
       <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="B81" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="45">
       <c r="A82" s="2">
         <v>80</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="B82" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30">
       <c r="A83" s="2">
         <v>81</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="B83" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30">
       <c r="A84" s="2">
         <v>82</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="B84" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30">
       <c r="A85" s="2">
         <v>83</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">

--- a/ThanhNgu4Chu.xlsx
+++ b/ThanhNgu4Chu.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
   <si>
     <t>番号</t>
   </si>
@@ -4929,6 +4929,159 @@
   <si>
     <t>①いまだかつて、誰も成功していないこと。
 ②それまで、誰も行ったことがないところ。</t>
+  </si>
+  <si>
+    <t>前代未聞</t>
+  </si>
+  <si>
+    <t>ぜんだいみもん</t>
+  </si>
+  <si>
+    <t>今まで聞いたことがないような、驚くべきこと。非常に変わった、珍しいこと。</t>
+  </si>
+  <si>
+    <t>先手必勝</t>
+  </si>
+  <si>
+    <t>せんてひっしょう</t>
+  </si>
+  <si>
+    <t>戦うときは、相手より先に攻撃すれば必ず勝てるということ。</t>
+  </si>
+  <si>
+    <t>千変万化</t>
+  </si>
+  <si>
+    <t>せんぺんばんか</t>
+  </si>
+  <si>
+    <t>物事の状況や状態がさまざまに変化すること。</t>
+  </si>
+  <si>
+    <t>大義名分</t>
+  </si>
+  <si>
+    <t>たいぎめいぶん</t>
+  </si>
+  <si>
+    <t>何らかの行動を起こす時に根拠にする、誰もが正しいと思える理由。</t>
+  </si>
+  <si>
+    <t>大言壮語</t>
+  </si>
+  <si>
+    <t>たいげんそうご</t>
+  </si>
+  <si>
+    <t>自分の実力に見合わない、威勢のいいことやできそうにないことを言うこと。</t>
+  </si>
+  <si>
+    <t>泰然自若</t>
+  </si>
+  <si>
+    <t>たいぜんじじゃく</t>
+  </si>
+  <si>
+    <t>物事に動じず、落ち着き払っている様子。</t>
+  </si>
+  <si>
+    <t>大胆不敵</t>
+  </si>
+  <si>
+    <t>だいたんふてき</t>
+  </si>
+  <si>
+    <t>度胸があって、何事にも動じることがないこと。</t>
+  </si>
+  <si>
+    <t>大同小異</t>
+  </si>
+  <si>
+    <t>だいどうしょうい</t>
+  </si>
+  <si>
+    <t>小さな違いがあっても、全体的にみればほぼ同じだということ。</t>
+  </si>
+  <si>
+    <t>他力本願</t>
+  </si>
+  <si>
+    <t>たりきほんがん</t>
+  </si>
+  <si>
+    <t>何かをなそうとするときに、自分で努力せずに、他人のことを当てにすること。</t>
+  </si>
+  <si>
+    <t>適材適所</t>
+  </si>
+  <si>
+    <t>てきざいてきしょ</t>
+  </si>
+  <si>
+    <t>その人の才能や性格にふさわしい地位や仕事を与えること。</t>
+  </si>
+  <si>
+    <t>手前味噌</t>
+  </si>
+  <si>
+    <t>てまえみそ</t>
+  </si>
+  <si>
+    <t>自分で自分のしたことをほめること。</t>
+  </si>
+  <si>
+    <t>天真爛漫</t>
+  </si>
+  <si>
+    <t>てんしんらんまん</t>
+  </si>
+  <si>
+    <t>自分のことを飾らず、ありのままでいること。無邪気で明るいこと。</t>
+  </si>
+  <si>
+    <t>天変地異</t>
+  </si>
+  <si>
+    <t>てんぺんちい</t>
+  </si>
+  <si>
+    <t>自然界で起こる、台風や地震、火山噴火などの異変や災害のこと。</t>
+  </si>
+  <si>
+    <t>当意即妙</t>
+  </si>
+  <si>
+    <t>とういそくみょう</t>
+  </si>
+  <si>
+    <t>その場の状況にあわせてすばやく適切な対応をとること。</t>
+  </si>
+  <si>
+    <t>東奔西走</t>
+  </si>
+  <si>
+    <t>とうほんせいそう</t>
+  </si>
+  <si>
+    <t>仕事や目的のために、あちこちを忙しく駆け回ること。</t>
+  </si>
+  <si>
+    <t>二束三文</t>
+  </si>
+  <si>
+    <t>にそくさんもん</t>
+  </si>
+  <si>
+    <t>値段が非常に安いこと。投げ売りのような安値。</t>
+  </si>
+  <si>
+    <t>日進月歩</t>
+  </si>
+  <si>
+    <t>にっしんげっぽ</t>
+  </si>
+  <si>
+    <t>絶え間なく、急速に進歩していること。</t>
   </si>
 </sst>
 </file>
@@ -5375,10 +5528,10 @@
   <dimension ref="A2:D211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -6565,141 +6718,243 @@
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" ht="30">
       <c r="A86" s="2">
         <v>84</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="B86" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30">
       <c r="A87" s="2">
         <v>85</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
         <v>86</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="B88" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30">
       <c r="A89" s="2">
         <v>87</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="B89" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30">
       <c r="A90" s="2">
         <v>88</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
         <v>89</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="B91" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30">
       <c r="A92" s="2">
         <v>90</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="B92" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30">
       <c r="A93" s="2">
         <v>91</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="B93" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="30">
       <c r="A94" s="2">
         <v>92</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="B94" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30">
       <c r="A95" s="2">
         <v>93</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
         <v>94</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="B96" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30">
       <c r="A97" s="2">
         <v>95</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="B97" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30">
       <c r="A98" s="2">
         <v>96</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="B98" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30">
       <c r="A99" s="2">
         <v>97</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="B99" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30">
       <c r="A100" s="2">
         <v>98</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="B100" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="30">
       <c r="A101" s="2">
         <v>99</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
         <v>100</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">

--- a/ThanhNgu4Chu.xlsx
+++ b/ThanhNgu4Chu.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
   <si>
     <t>番号</t>
   </si>
@@ -5082,6 +5082,304 @@
   </si>
   <si>
     <t>絶え間なく、急速に進歩していること。</t>
+  </si>
+  <si>
+    <t>破顔一笑</t>
+  </si>
+  <si>
+    <t>はがんいっしょう</t>
+  </si>
+  <si>
+    <t>表情がやわらいで、にっこりと笑うこと。</t>
+  </si>
+  <si>
+    <t>博覧強記</t>
+  </si>
+  <si>
+    <t>はくらんきょうき</t>
+  </si>
+  <si>
+    <t>いろいろな本を読んでいて、その内容をしっかりと覚えている人。知識の豊富な人。</t>
+  </si>
+  <si>
+    <t>八方美人</t>
+  </si>
+  <si>
+    <t>はっぽうびじん</t>
+  </si>
+  <si>
+    <t>誰からもよく思われたいと思っている人。また、そう思われようと調子よくふるまう人。</t>
+  </si>
+  <si>
+    <t>波乱万丈</t>
+  </si>
+  <si>
+    <t>はらんばんじょう</t>
+  </si>
+  <si>
+    <t>物事の進み方などが、激しい変化に富んでいること。</t>
+  </si>
+  <si>
+    <t>半死半生</t>
+  </si>
+  <si>
+    <t>はんしはんしょう</t>
+  </si>
+  <si>
+    <t>生きるか死ぬかの境目にあること。</t>
+  </si>
+  <si>
+    <t>半信半疑</t>
+  </si>
+  <si>
+    <t>はんしんはんぎ</t>
+  </si>
+  <si>
+    <t>支持る気持ちと疑う気持ちが半々で、信じ切れず判断に迷うこと。</t>
+  </si>
+  <si>
+    <t>美辞麗句</t>
+  </si>
+  <si>
+    <t>びじれいく</t>
+  </si>
+  <si>
+    <t>うわべだけをきれいに飾った、聞いて心地よいが内容のない言葉。</t>
+  </si>
+  <si>
+    <t>百発百中</t>
+  </si>
+  <si>
+    <t>ひゃっぱつひゃくちゅう</t>
+  </si>
+  <si>
+    <t>予想していたこと、計画していたことなどがすべて的中すること。</t>
+  </si>
+  <si>
+    <t>不言実行</t>
+  </si>
+  <si>
+    <t>ふげんじっこう</t>
+  </si>
+  <si>
+    <t>あれこれ言わずに、やるべきことを黙って実施すること。</t>
+  </si>
+  <si>
+    <t>不眠不休</t>
+  </si>
+  <si>
+    <t>ふみんふきゅう</t>
+  </si>
+  <si>
+    <t>眠ったり休んだりせずに、物事をやり遂げようとすること。</t>
+  </si>
+  <si>
+    <t>平身低頭</t>
+  </si>
+  <si>
+    <t>へいしんていとう</t>
+  </si>
+  <si>
+    <t>物事を頼んだり、許してもらったりするために、ひたすら頭を下げること。</t>
+  </si>
+  <si>
+    <t>本末転倒</t>
+  </si>
+  <si>
+    <t>ほんまつてんとう</t>
+  </si>
+  <si>
+    <t>大切なこととそうでないことを取り違えること。</t>
+  </si>
+  <si>
+    <t>満場一致</t>
+  </si>
+  <si>
+    <t>まんじょういっち</t>
+  </si>
+  <si>
+    <t>会議などの時に、その場にいる全員の意見が一致すること。</t>
+  </si>
+  <si>
+    <t>三日坊主</t>
+  </si>
+  <si>
+    <t>みっかぼうず</t>
+  </si>
+  <si>
+    <t>飽きっぽくて、何をやっても長続きしない人。</t>
+  </si>
+  <si>
+    <t>無我夢中</t>
+  </si>
+  <si>
+    <t>むがむちゅう</t>
+  </si>
+  <si>
+    <t>何かに熱中して、我を忘れて行動すること。</t>
+  </si>
+  <si>
+    <t>無病息災</t>
+  </si>
+  <si>
+    <t>むびょうそくさい</t>
+  </si>
+  <si>
+    <t>病気に一つもかからずに、健康であること。</t>
+  </si>
+  <si>
+    <t>無味乾燥</t>
+  </si>
+  <si>
+    <t>むみかんそう</t>
+  </si>
+  <si>
+    <t>話の内容などに、味わいやおもしとみが欠けていること。</t>
+  </si>
+  <si>
+    <t>無理難題</t>
+  </si>
+  <si>
+    <t>むりなんだい</t>
+  </si>
+  <si>
+    <t>①理屈に合わない言いがかり。
+②とても実現できそうにない、難しい要求。</t>
+  </si>
+  <si>
+    <t>門外不出</t>
+  </si>
+  <si>
+    <t>こんがいふしゅつ</t>
+  </si>
+  <si>
+    <t>持ち出しや貸し出しを許さないような、とても貴重な品物。</t>
+  </si>
+  <si>
+    <t>問答無用</t>
+  </si>
+  <si>
+    <t>もんどうむよう</t>
+  </si>
+  <si>
+    <t>話し合っても意味がないこと。議論の必要がないこと。</t>
+  </si>
+  <si>
+    <t>唯一無に</t>
+  </si>
+  <si>
+    <t>ゆいいつむに</t>
+  </si>
+  <si>
+    <t>世の中にただ一つしかない、かけがえのないもの。</t>
+  </si>
+  <si>
+    <t>優柔不断</t>
+  </si>
+  <si>
+    <t>ゆうじゅうふだん</t>
+  </si>
+  <si>
+    <t>なかなか決心がつかない人。ぐずぐずしていて、決断力のない人。</t>
+  </si>
+  <si>
+    <t>勇猛果敢</t>
+  </si>
+  <si>
+    <t>ゆうもうかかん</t>
+  </si>
+  <si>
+    <t>勇敢で、思い切った行動をすること。</t>
+  </si>
+  <si>
+    <t>悠々自適</t>
+  </si>
+  <si>
+    <t>ゆうゆじてき</t>
+  </si>
+  <si>
+    <t>世の中と距離をおいて、自分の思うとおりにのんびりと生活すること。</t>
+  </si>
+  <si>
+    <t>油断大敵</t>
+  </si>
+  <si>
+    <t>ゆだんたいてき</t>
+  </si>
+  <si>
+    <t>油断していると思わぬ失敗することがある。油断してはいけないという戒め。</t>
+  </si>
+  <si>
+    <t>用意周到</t>
+  </si>
+  <si>
+    <t>よういしゅうとう</t>
+  </si>
+  <si>
+    <t>準備や用意が行き届いていて、不備や不足がないこと。</t>
+  </si>
+  <si>
+    <t>容姿端麗</t>
+  </si>
+  <si>
+    <t>ようしたんれい</t>
+  </si>
+  <si>
+    <t>女性の体形や顔かたちが美しい様子。</t>
+  </si>
+  <si>
+    <t>利害得失</t>
+  </si>
+  <si>
+    <t>りがいとくしつ</t>
+  </si>
+  <si>
+    <t>利益と損害をまとめて強調した言葉。</t>
+  </si>
+  <si>
+    <t>離合集散</t>
+  </si>
+  <si>
+    <t>りごうしゅうさん</t>
+  </si>
+  <si>
+    <t>人や物が、離れたり集まったリすること。</t>
+  </si>
+  <si>
+    <t>立身出世</t>
+  </si>
+  <si>
+    <t>りっしんしゅっせ</t>
+  </si>
+  <si>
+    <t>社会に認められて、名声を得ること。</t>
+  </si>
+  <si>
+    <t>流言飛語</t>
+  </si>
+  <si>
+    <t>りゅうげんひご</t>
+  </si>
+  <si>
+    <t>世間で言いふらされている、根拠のない無責任な噂。デマ。</t>
+  </si>
+  <si>
+    <t>理路整然</t>
+  </si>
+  <si>
+    <t>りろせいぜん</t>
+  </si>
+  <si>
+    <t>話や考え方などの筋道がきちんと通っていること。</t>
+  </si>
+  <si>
+    <t>老若男女</t>
+  </si>
+  <si>
+    <t>ろうにゃくなんにょ</t>
+  </si>
+  <si>
+    <t>年齢や性別に関係なく、あらゆる人すべてということ。</t>
   </si>
 </sst>
 </file>
@@ -5527,11 +5825,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C97" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D102" sqref="D102"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -6960,265 +7258,463 @@
       <c r="A103" s="2">
         <v>101</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="B103" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="30">
       <c r="A104" s="2">
         <v>102</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="B104" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="30">
       <c r="A105" s="2">
         <v>103</v>
       </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="B105" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="30">
       <c r="A106" s="2">
         <v>104</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
         <v>105</v>
       </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="B107" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30">
       <c r="A108" s="2">
         <v>106</v>
       </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="B108" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30">
       <c r="A109" s="2">
         <v>107</v>
       </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="B109" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="30">
       <c r="A110" s="2">
         <v>108</v>
       </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="B110" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="30">
       <c r="A111" s="2">
         <v>109</v>
       </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="B111" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="30">
       <c r="A112" s="2">
         <v>110</v>
       </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="B112" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="30">
       <c r="A113" s="2">
         <v>111</v>
       </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="B113" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="30">
       <c r="A114" s="2">
         <v>112</v>
       </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="B114" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="30">
       <c r="A115" s="2">
         <v>113</v>
       </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
         <v>114</v>
       </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
         <v>115</v>
       </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="B117" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
         <v>116</v>
       </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="B118" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="30">
       <c r="A119" s="2">
         <v>117</v>
       </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="B119" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="30">
       <c r="A120" s="2">
         <v>118</v>
       </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="B120" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="30">
       <c r="A121" s="2">
         <v>119</v>
       </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="B121" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="30">
       <c r="A122" s="2">
         <v>120</v>
       </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="B122" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="30">
       <c r="A123" s="2">
         <v>121</v>
       </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="B123" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="30">
       <c r="A124" s="2">
         <v>122</v>
       </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="B124" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
         <v>123</v>
       </c>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="B125" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="30">
       <c r="A126" s="2">
         <v>124</v>
       </c>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="B126" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="30">
       <c r="A127" s="2">
         <v>125</v>
       </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="B127" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="30">
       <c r="A128" s="2">
         <v>126</v>
       </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
         <v>127</v>
       </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
         <v>128</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
         <v>129</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
         <v>130</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="B132" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="30">
       <c r="A133" s="2">
         <v>131</v>
       </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="B133" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="30">
       <c r="A134" s="2">
         <v>132</v>
       </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="B134" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="30">
       <c r="A135" s="2">
         <v>133</v>
       </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+      <c r="B135" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
